--- a/me/2.typescript/1.Chuong-trinh-TypeScript-dau-tien.xlsx
+++ b/me/2.typescript/1.Chuong-trinh-TypeScript-dau-tien.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B737C-47B9-47D2-AD26-821A468A6172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887ACFE5-80C8-49D0-AA37-F617FDE73723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doc" sheetId="2" r:id="rId1"/>
     <sheet name="Project structure" sheetId="1" r:id="rId2"/>
+    <sheet name="Install TypeScript" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>構成</t>
   </si>
@@ -62,6 +63,27 @@
   </si>
   <si>
     <t>Khi import vào các tập tin html thì ko import trực tiếp type script mà import các file java script được biên dịch từ type script</t>
+  </si>
+  <si>
+    <t>nodejs</t>
+  </si>
+  <si>
+    <t>node -v</t>
+  </si>
+  <si>
+    <t>npm -v</t>
+  </si>
+  <si>
+    <t>Install type script</t>
+  </si>
+  <si>
+    <t>npm install -g typescript</t>
+  </si>
+  <si>
+    <t>check version</t>
+  </si>
+  <si>
+    <t>tsc -v</t>
   </si>
 </sst>
 </file>
@@ -77,12 +99,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -177,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -189,6 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,6 +317,671 @@
         <a:xfrm>
           <a:off x="647700" y="6162676"/>
           <a:ext cx="11306175" cy="4479176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160533</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>8738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C761DE4A-7B7C-4970-B11E-33CDBA84B6B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6286500"/>
+          <a:ext cx="11133333" cy="6295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428038</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>28119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E07697-FDB3-43D3-9EDD-345FCE40E082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12954000"/>
+          <a:ext cx="4695238" cy="3647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>389943</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>37643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55182ADD-7740-4D03-B4C6-A8CC993AA3D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16954500"/>
+          <a:ext cx="4657143" cy="3657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399467</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>66214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026CB8D6-6B8F-48B0-AC49-0AC6869EC473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20764500"/>
+          <a:ext cx="4666667" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>370895</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{070BBA4E-8F8F-4F02-A274-87AD13D8A981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24574500"/>
+          <a:ext cx="4638095" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399467</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>56690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44899FF-2070-46F2-91D8-25610C337238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="28384500"/>
+          <a:ext cx="4666667" cy="3676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399467</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>47167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94C2EAC-61B6-40CE-8DF4-4FB72A2D67B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="32194500"/>
+          <a:ext cx="4666667" cy="3666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>389943</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>56690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B506FD98-FA14-4653-9C0B-46C4436EFF4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36004500"/>
+          <a:ext cx="4657143" cy="3676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>256620</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>104577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483B13C5-6064-452A-BB2E-482AD4CD1781}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="40243125"/>
+          <a:ext cx="4438095" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77EE578C-0D6D-D2B8-EB55-0EDDDC611E67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="590550"/>
+          <a:ext cx="11268075" cy="3307296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104387</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>180864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CB4520-153A-3CA2-06D0-516E0EC7FDC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="40633650"/>
+          <a:ext cx="3104762" cy="885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>398636</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>132959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B4E0AC-1E7F-4D59-ACD0-CDC8216F20B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="42157650"/>
+          <a:ext cx="11314286" cy="3123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>484343</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>104071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C129A61-6292-D366-0F4C-3B6CAC532E1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="45529500"/>
+          <a:ext cx="11457143" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>122984</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>85556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B1A630-23A2-811E-949F-ED6A726D2AE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="51692175"/>
+          <a:ext cx="6723809" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>189876</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>161802</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEB259C2-4592-87FD-ED8B-833F18748D7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="53854350"/>
+          <a:ext cx="4990476" cy="980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -590,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,4 +1385,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE282E4-898E-4160-9445-CA1A117344F9}">
+  <dimension ref="A2:B282"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/2.typescript/1.Chuong-trinh-TypeScript-dau-tien.xlsx
+++ b/me/2.typescript/1.Chuong-trinh-TypeScript-dau-tien.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887ACFE5-80C8-49D0-AA37-F617FDE73723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF5EFF3-E22A-4E28-92B4-ABC5A934E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doc" sheetId="2" r:id="rId1"/>
     <sheet name="Project structure" sheetId="1" r:id="rId2"/>
     <sheet name="Install TypeScript" sheetId="4" r:id="rId3"/>
+    <sheet name="Compile" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="177">
   <si>
     <t>構成</t>
   </si>
@@ -84,16 +85,497 @@
   </si>
   <si>
     <t>tsc -v</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>greeter.ts</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\greeter.ts</t>
+  </si>
+  <si>
+    <t>function greeter(person: string) {</t>
+  </si>
+  <si>
+    <t>    return "Hello, " + person;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>let user = "Jane User";</t>
+  </si>
+  <si>
+    <t>document.body.textContent = greeter(user);</t>
+  </si>
+  <si>
+    <t>Compiling</t>
+  </si>
+  <si>
+    <t>tsc greeter.ts</t>
+  </si>
+  <si>
+    <t>is added</t>
+  </si>
+  <si>
+    <t>greeter.js</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\greeter.js</t>
+  </si>
+  <si>
+    <t>function greeter(person) {</t>
+  </si>
+  <si>
+    <t>var user = "Jane User";</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\index.html</t>
+  </si>
+  <si>
+    <t>edit code</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html lang="en"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;head&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;meta charset="utf-8"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;title&gt;TypeScript Training&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;link href="css/styles.css" rel="stylesheet"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;link href="css/bootstrap.min.css" rel="stylesheet"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;body&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;div class="container"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;div class="row" id="mContent"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;!-- &lt;h1&gt;TypeScript Training &lt;small&gt;Price: $18&lt;/small&gt;&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;p&gt;Lorem ipsum dolor sit amet, consectetur adipisicing elit. Cumque, nobis sed amet optio. Laudantium maxime tenetur ipsa illo sed minima.&lt;/p&gt; --&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;div class="row"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;div class="col-xs-12 col-sm-12 col-md-12 col-lg-12"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;h1&gt;TypeScript &lt;small&gt;&lt;/small&gt;&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>                &lt;div class="col-xs-12 col-sm-6 col-md-6 col-lg-6"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;!-- ENVIROMENT : START--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    &lt;div class="panel panel-primary"&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;div class="panel-heading"&gt;&lt;h1 class="panel-title"&gt;01 - Cài đặt Môi trường lập trình&lt;/h1&gt;&lt;/div&gt; </t>
+  </si>
+  <si>
+    <t>                        &lt;div class="panel-body"&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;ol&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Giới thiệu khóa học&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Sử dụng mã nguồn và tài nguyên trong khóa học&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Cài đặt và sử dụng Editor SublimeText&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Thủ thuật SublimeText&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Hệ thống kiến thức&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>                        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;!-- ENVIROMENT : END--&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;!-- ES6 : START--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;div class="panel-heading"&gt;&lt;h1 class="panel-title"&gt;02 - ECMAScript 6&lt;/h1&gt;&lt;/div&gt; </t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;ES6 Những điều cần biết&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;</t>
+  </si>
+  <si>
+    <t>                                    Variable - Template String - Spread - Destructing</t>
+  </si>
+  <si>
+    <t>                                    &lt;ul&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;let vs var&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;const&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Template String&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;For&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Spread&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Destructuring&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                    &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                    Functions</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Default params&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Rest params&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                    Arrow Functions</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Arrow Functions&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;this&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                    Enhanced</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Property Shorthand&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Computed Property Names&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Method Properties&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                    ES6 OOP</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Class&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Inheritance&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;!-- ES6 : END--&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;!-- Shopping Cart : START--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;div class="panel-heading"&gt;&lt;h1 class="panel-title"&gt;04 - TodoList&lt;/h1&gt;&lt;/div&gt; </t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Demo ứng dụng Shopping Cart&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Quy trình phân tích và List Task&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                &lt;li&gt;Xây dựng cấu trúc thư mục cho Project&lt;/li&gt; </t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Xây dựng Giao diện với Bootstrap&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Phân tích Class và Interface&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Đọc file dữ liệu Json từ Web service và hiển thị sản phẩm&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Xây dựng chức năng Add sản phẩm vào giỏ hàng&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Xây dựng chức năng Update số lượng sản phẩm&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Xây dựng chức năng Delete sản phẩm&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Kỹ thuật tối ưu mã nguồn&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Publish Project Shopping Cart&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;!-- Shopping Cart : END--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
+  </si>
+  <si>
+    <t>                    &lt;!-- TYPESCRIPT : START--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;div class="panel-heading"&gt;&lt;h1 class="panel-title"&gt;03 - TypeScript&lt;/h1&gt;&lt;/div&gt; </t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Xin chào TypeScript&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                    Chương trình TypeScript đầu tiên</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;project structure&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Install TypeScript&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Compile&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;tsconfig&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                    Variable &amp; Data Type</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Basic type: Number Boolean String&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Array&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Tuple&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Enum&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Any&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Void&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Type assertions&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Interface - Object&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Interface - Array&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;return&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Param&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Function types&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Overload&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                    OOP</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Static&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Inheritance&lt;/li&gt;                                    </t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Access modifiers&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Accessors&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Abstract&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Interface&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                    Generic</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Basic&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Method&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Class&lt;/li&gt;      </t>
+  </si>
+  <si>
+    <t>                                    Namespaces and Modules</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Module&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Namespace&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;Export Import&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;li&gt;SystemJS&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;!-- TYPESCRIPT : END--&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;!-- MULTI SELECT : START--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        &lt;div class="panel-heading"&gt;&lt;h1 class="panel-title"&gt;05 - Project tự thực hành&lt;/h1&gt;&lt;/div&gt; </t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Exercise: Xây dựng ứng dụng ToDoList&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Exercise: Xây dựng game Batte Ship&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;li&gt;Tổng kết khóa học&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;!-- MULTI SELECT : END--&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>        &lt;script src="js/jquery.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="js/bootstrap.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/body&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./greeter.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Check browser</t>
+  </si>
+  <si>
+    <t>Biên dịch type script sang javascript</t>
+  </si>
+  <si>
+    <t>tsc greeter.ts -w</t>
+  </si>
+  <si>
+    <t>Biên dịch tự động</t>
+  </si>
+  <si>
+    <t>let user = "ES6";</t>
+  </si>
+  <si>
+    <t>var user = "Es6";</t>
+  </si>
+  <si>
+    <t>file javascript tự động được biên dịch</t>
+  </si>
+  <si>
+    <t>Thêm option --watch để biên dịch tự động khi file type script có sự thay đổi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -218,6 +700,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,58 +1350,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>484343</xdr:colOff>
-      <xdr:row>268</xdr:row>
-      <xdr:rowOff>104071</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C129A61-6292-D366-0F4C-3B6CAC532E1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="45529500"/>
-          <a:ext cx="11457143" cy="5628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>271</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>122984</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>85556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -929,7 +1374,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -950,13 +1395,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>189876</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>161802</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -973,7 +1418,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -988,6 +1433,554 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>36800</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>46881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2906F1-8293-86D0-1392-D6462F58DD24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="45529500"/>
+          <a:ext cx="10400000" cy="5952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>170145</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>56669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39261F73-2B2F-DB56-91B8-BDFCA9CA3BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="2876550"/>
+          <a:ext cx="10438095" cy="3847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361233</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>38008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15BDE923-91AB-97C5-2875-8AB65672C2E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="9210675"/>
+          <a:ext cx="5733333" cy="733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0D7861-4CBF-68D7-271F-5319C8D52797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2419350" y="9639300"/>
+          <a:ext cx="3105150" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB3DED3-763D-2DEA-CE2E-69124BAFDC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1695450" y="11953875"/>
+          <a:ext cx="209550" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA2A927-F449-DD5B-83FF-98965DA764BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2314575" y="6372225"/>
+          <a:ext cx="1638300" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A6E539-47DB-B6B6-DF80-B530180364EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2019300" y="2266950"/>
+          <a:ext cx="3057525" cy="41224200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380508</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>95082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9EA1C34-F551-FEFA-5E53-7276F4831C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="55902225"/>
+          <a:ext cx="3933333" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>67156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400828</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A24BFB4-71A0-738E-923F-6390AA9E069F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647699" y="58169656"/>
+          <a:ext cx="6458729" cy="980594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C58DC9F-2589-173D-427E-F6D5865999F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1371600" y="49872900"/>
+          <a:ext cx="95250" cy="10763250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B083F66-D337-B78E-48E5-1870E836B941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="54492525"/>
+          <a:ext cx="95250" cy="7096125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1285,7 +2278,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="A5" sqref="A5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE282E4-898E-4160-9445-CA1A117344F9}">
-  <dimension ref="A2:B282"/>
+  <dimension ref="A2:Q283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="Q278" sqref="Q278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,18 +2410,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q278" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B282" t="s">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1436,4 +2434,4805 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB07D3B-B648-40E7-88AB-F833ACAC23DC}">
+  <dimension ref="A2:Q329"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="G320" sqref="G320"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="5"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="5"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="5"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="5"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="5"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="5"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="5"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="5"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="5"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="5"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="5"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="5"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="5"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="5"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="5"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="5"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="5"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="5"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="5"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="5"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="5"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="5"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="5"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="5"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="5"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="5"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="5"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="5"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="5"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="5"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="5"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="5"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="5"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="5"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="5"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="5"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="5"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="5"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="5"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="5"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="5"/>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="5"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="5"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="5"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="5"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="5"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="5"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="5"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="5"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="5"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="13"/>
+      <c r="O109" s="13"/>
+      <c r="P109" s="13"/>
+      <c r="Q109" s="5"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+      <c r="Q110" s="5"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="13"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="13"/>
+      <c r="Q111" s="5"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
+      <c r="O112" s="13"/>
+      <c r="P112" s="13"/>
+      <c r="Q112" s="5"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+      <c r="Q113" s="5"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="5"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" s="13"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="13"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="13"/>
+      <c r="Q115" s="5"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13"/>
+      <c r="Q116" s="5"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
+      <c r="O117" s="13"/>
+      <c r="P117" s="13"/>
+      <c r="Q117" s="5"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="13"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
+      <c r="O118" s="13"/>
+      <c r="P118" s="13"/>
+      <c r="Q118" s="5"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C119" s="13"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="13"/>
+      <c r="O119" s="13"/>
+      <c r="P119" s="13"/>
+      <c r="Q119" s="5"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="13"/>
+      <c r="O120" s="13"/>
+      <c r="P120" s="13"/>
+      <c r="Q120" s="5"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" s="13"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="13"/>
+      <c r="O121" s="13"/>
+      <c r="P121" s="13"/>
+      <c r="Q121" s="5"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="13"/>
+      <c r="M122" s="13"/>
+      <c r="N122" s="13"/>
+      <c r="O122" s="13"/>
+      <c r="P122" s="13"/>
+      <c r="Q122" s="5"/>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" s="13"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="13"/>
+      <c r="N123" s="13"/>
+      <c r="O123" s="13"/>
+      <c r="P123" s="13"/>
+      <c r="Q123" s="5"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+      <c r="M124" s="13"/>
+      <c r="N124" s="13"/>
+      <c r="O124" s="13"/>
+      <c r="P124" s="13"/>
+      <c r="Q124" s="5"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" s="13"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
+      <c r="M125" s="13"/>
+      <c r="N125" s="13"/>
+      <c r="O125" s="13"/>
+      <c r="P125" s="13"/>
+      <c r="Q125" s="5"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+      <c r="O126" s="13"/>
+      <c r="P126" s="13"/>
+      <c r="Q126" s="5"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="13"/>
+      <c r="O127" s="13"/>
+      <c r="P127" s="13"/>
+      <c r="Q127" s="5"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="13"/>
+      <c r="O128" s="13"/>
+      <c r="P128" s="13"/>
+      <c r="Q128" s="5"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="13"/>
+      <c r="O129" s="13"/>
+      <c r="P129" s="13"/>
+      <c r="Q129" s="5"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="13"/>
+      <c r="M130" s="13"/>
+      <c r="N130" s="13"/>
+      <c r="O130" s="13"/>
+      <c r="P130" s="13"/>
+      <c r="Q130" s="5"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
+      <c r="M131" s="13"/>
+      <c r="N131" s="13"/>
+      <c r="O131" s="13"/>
+      <c r="P131" s="13"/>
+      <c r="Q131" s="5"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="13"/>
+      <c r="O132" s="13"/>
+      <c r="P132" s="13"/>
+      <c r="Q132" s="5"/>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
+      <c r="M133" s="13"/>
+      <c r="N133" s="13"/>
+      <c r="O133" s="13"/>
+      <c r="P133" s="13"/>
+      <c r="Q133" s="5"/>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C134" s="13"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
+      <c r="O134" s="13"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="5"/>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="13"/>
+      <c r="O135" s="13"/>
+      <c r="P135" s="13"/>
+      <c r="Q135" s="5"/>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
+      <c r="M136" s="13"/>
+      <c r="N136" s="13"/>
+      <c r="O136" s="13"/>
+      <c r="P136" s="13"/>
+      <c r="Q136" s="5"/>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C137" s="13"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
+      <c r="M137" s="13"/>
+      <c r="N137" s="13"/>
+      <c r="O137" s="13"/>
+      <c r="P137" s="13"/>
+      <c r="Q137" s="5"/>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+      <c r="O138" s="13"/>
+      <c r="P138" s="13"/>
+      <c r="Q138" s="5"/>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="13"/>
+      <c r="M139" s="13"/>
+      <c r="N139" s="13"/>
+      <c r="O139" s="13"/>
+      <c r="P139" s="13"/>
+      <c r="Q139" s="5"/>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="13"/>
+      <c r="M140" s="13"/>
+      <c r="N140" s="13"/>
+      <c r="O140" s="13"/>
+      <c r="P140" s="13"/>
+      <c r="Q140" s="5"/>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="13"/>
+      <c r="O141" s="13"/>
+      <c r="P141" s="13"/>
+      <c r="Q141" s="5"/>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="13"/>
+      <c r="M142" s="13"/>
+      <c r="N142" s="13"/>
+      <c r="O142" s="13"/>
+      <c r="P142" s="13"/>
+      <c r="Q142" s="5"/>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="13"/>
+      <c r="M143" s="13"/>
+      <c r="N143" s="13"/>
+      <c r="O143" s="13"/>
+      <c r="P143" s="13"/>
+      <c r="Q143" s="5"/>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="13"/>
+      <c r="O144" s="13"/>
+      <c r="P144" s="13"/>
+      <c r="Q144" s="5"/>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="13"/>
+      <c r="M145" s="13"/>
+      <c r="N145" s="13"/>
+      <c r="O145" s="13"/>
+      <c r="P145" s="13"/>
+      <c r="Q145" s="5"/>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="13"/>
+      <c r="M146" s="13"/>
+      <c r="N146" s="13"/>
+      <c r="O146" s="13"/>
+      <c r="P146" s="13"/>
+      <c r="Q146" s="5"/>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="13"/>
+      <c r="M147" s="13"/>
+      <c r="N147" s="13"/>
+      <c r="O147" s="13"/>
+      <c r="P147" s="13"/>
+      <c r="Q147" s="5"/>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
+      <c r="L148" s="13"/>
+      <c r="M148" s="13"/>
+      <c r="N148" s="13"/>
+      <c r="O148" s="13"/>
+      <c r="P148" s="13"/>
+      <c r="Q148" s="5"/>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C149" s="13"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13"/>
+      <c r="L149" s="13"/>
+      <c r="M149" s="13"/>
+      <c r="N149" s="13"/>
+      <c r="O149" s="13"/>
+      <c r="P149" s="13"/>
+      <c r="Q149" s="5"/>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="13"/>
+      <c r="M150" s="13"/>
+      <c r="N150" s="13"/>
+      <c r="O150" s="13"/>
+      <c r="P150" s="13"/>
+      <c r="Q150" s="5"/>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+      <c r="K151" s="13"/>
+      <c r="L151" s="13"/>
+      <c r="M151" s="13"/>
+      <c r="N151" s="13"/>
+      <c r="O151" s="13"/>
+      <c r="P151" s="13"/>
+      <c r="Q151" s="5"/>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="13"/>
+      <c r="M152" s="13"/>
+      <c r="N152" s="13"/>
+      <c r="O152" s="13"/>
+      <c r="P152" s="13"/>
+      <c r="Q152" s="5"/>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
+      <c r="M153" s="13"/>
+      <c r="N153" s="13"/>
+      <c r="O153" s="13"/>
+      <c r="P153" s="13"/>
+      <c r="Q153" s="5"/>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B154" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="13"/>
+      <c r="K154" s="13"/>
+      <c r="L154" s="13"/>
+      <c r="M154" s="13"/>
+      <c r="N154" s="13"/>
+      <c r="O154" s="13"/>
+      <c r="P154" s="13"/>
+      <c r="Q154" s="5"/>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="13"/>
+      <c r="M155" s="13"/>
+      <c r="N155" s="13"/>
+      <c r="O155" s="13"/>
+      <c r="P155" s="13"/>
+      <c r="Q155" s="5"/>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B156" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="13"/>
+      <c r="O156" s="13"/>
+      <c r="P156" s="13"/>
+      <c r="Q156" s="5"/>
+    </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B157" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="13"/>
+      <c r="K157" s="13"/>
+      <c r="L157" s="13"/>
+      <c r="M157" s="13"/>
+      <c r="N157" s="13"/>
+      <c r="O157" s="13"/>
+      <c r="P157" s="13"/>
+      <c r="Q157" s="5"/>
+    </row>
+    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B158" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
+      <c r="K158" s="13"/>
+      <c r="L158" s="13"/>
+      <c r="M158" s="13"/>
+      <c r="N158" s="13"/>
+      <c r="O158" s="13"/>
+      <c r="P158" s="13"/>
+      <c r="Q158" s="5"/>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B159" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C159" s="13"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
+      <c r="L159" s="13"/>
+      <c r="M159" s="13"/>
+      <c r="N159" s="13"/>
+      <c r="O159" s="13"/>
+      <c r="P159" s="13"/>
+      <c r="Q159" s="5"/>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B160" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
+      <c r="M160" s="13"/>
+      <c r="N160" s="13"/>
+      <c r="O160" s="13"/>
+      <c r="P160" s="13"/>
+      <c r="Q160" s="5"/>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B161" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+      <c r="K161" s="13"/>
+      <c r="L161" s="13"/>
+      <c r="M161" s="13"/>
+      <c r="N161" s="13"/>
+      <c r="O161" s="13"/>
+      <c r="P161" s="13"/>
+      <c r="Q161" s="5"/>
+    </row>
+    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="13"/>
+      <c r="L162" s="13"/>
+      <c r="M162" s="13"/>
+      <c r="N162" s="13"/>
+      <c r="O162" s="13"/>
+      <c r="P162" s="13"/>
+      <c r="Q162" s="5"/>
+    </row>
+    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="13"/>
+      <c r="L163" s="13"/>
+      <c r="M163" s="13"/>
+      <c r="N163" s="13"/>
+      <c r="O163" s="13"/>
+      <c r="P163" s="13"/>
+      <c r="Q163" s="5"/>
+    </row>
+    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="13"/>
+      <c r="L164" s="13"/>
+      <c r="M164" s="13"/>
+      <c r="N164" s="13"/>
+      <c r="O164" s="13"/>
+      <c r="P164" s="13"/>
+      <c r="Q164" s="5"/>
+    </row>
+    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B165" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C165" s="13"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
+      <c r="K165" s="13"/>
+      <c r="L165" s="13"/>
+      <c r="M165" s="13"/>
+      <c r="N165" s="13"/>
+      <c r="O165" s="13"/>
+      <c r="P165" s="13"/>
+      <c r="Q165" s="5"/>
+    </row>
+    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C166" s="13"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="13"/>
+      <c r="K166" s="13"/>
+      <c r="L166" s="13"/>
+      <c r="M166" s="13"/>
+      <c r="N166" s="13"/>
+      <c r="O166" s="13"/>
+      <c r="P166" s="13"/>
+      <c r="Q166" s="5"/>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="13"/>
+      <c r="K167" s="13"/>
+      <c r="L167" s="13"/>
+      <c r="M167" s="13"/>
+      <c r="N167" s="13"/>
+      <c r="O167" s="13"/>
+      <c r="P167" s="13"/>
+      <c r="Q167" s="5"/>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="13"/>
+      <c r="M168" s="13"/>
+      <c r="N168" s="13"/>
+      <c r="O168" s="13"/>
+      <c r="P168" s="13"/>
+      <c r="Q168" s="5"/>
+    </row>
+    <row r="169" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C169" s="13"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
+      <c r="K169" s="13"/>
+      <c r="L169" s="13"/>
+      <c r="M169" s="13"/>
+      <c r="N169" s="13"/>
+      <c r="O169" s="13"/>
+      <c r="P169" s="13"/>
+      <c r="Q169" s="5"/>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C170" s="13"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13"/>
+      <c r="I170" s="13"/>
+      <c r="J170" s="13"/>
+      <c r="K170" s="13"/>
+      <c r="L170" s="13"/>
+      <c r="M170" s="13"/>
+      <c r="N170" s="13"/>
+      <c r="O170" s="13"/>
+      <c r="P170" s="13"/>
+      <c r="Q170" s="5"/>
+    </row>
+    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13"/>
+      <c r="I171" s="13"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="13"/>
+      <c r="L171" s="13"/>
+      <c r="M171" s="13"/>
+      <c r="N171" s="13"/>
+      <c r="O171" s="13"/>
+      <c r="P171" s="13"/>
+      <c r="Q171" s="5"/>
+    </row>
+    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B172" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C172" s="13"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="13"/>
+      <c r="K172" s="13"/>
+      <c r="L172" s="13"/>
+      <c r="M172" s="13"/>
+      <c r="N172" s="13"/>
+      <c r="O172" s="13"/>
+      <c r="P172" s="13"/>
+      <c r="Q172" s="5"/>
+    </row>
+    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B173" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="13"/>
+      <c r="K173" s="13"/>
+      <c r="L173" s="13"/>
+      <c r="M173" s="13"/>
+      <c r="N173" s="13"/>
+      <c r="O173" s="13"/>
+      <c r="P173" s="13"/>
+      <c r="Q173" s="5"/>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B174" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C174" s="13"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13"/>
+      <c r="J174" s="13"/>
+      <c r="K174" s="13"/>
+      <c r="L174" s="13"/>
+      <c r="M174" s="13"/>
+      <c r="N174" s="13"/>
+      <c r="O174" s="13"/>
+      <c r="P174" s="13"/>
+      <c r="Q174" s="5"/>
+    </row>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B175" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="13"/>
+      <c r="J175" s="13"/>
+      <c r="K175" s="13"/>
+      <c r="L175" s="13"/>
+      <c r="M175" s="13"/>
+      <c r="N175" s="13"/>
+      <c r="O175" s="13"/>
+      <c r="P175" s="13"/>
+      <c r="Q175" s="5"/>
+    </row>
+    <row r="176" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C176" s="13"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
+      <c r="K176" s="13"/>
+      <c r="L176" s="13"/>
+      <c r="M176" s="13"/>
+      <c r="N176" s="13"/>
+      <c r="O176" s="13"/>
+      <c r="P176" s="13"/>
+      <c r="Q176" s="5"/>
+    </row>
+    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C177" s="13"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="13"/>
+      <c r="L177" s="13"/>
+      <c r="M177" s="13"/>
+      <c r="N177" s="13"/>
+      <c r="O177" s="13"/>
+      <c r="P177" s="13"/>
+      <c r="Q177" s="5"/>
+    </row>
+    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B178" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C178" s="13"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="13"/>
+      <c r="K178" s="13"/>
+      <c r="L178" s="13"/>
+      <c r="M178" s="13"/>
+      <c r="N178" s="13"/>
+      <c r="O178" s="13"/>
+      <c r="P178" s="13"/>
+      <c r="Q178" s="5"/>
+    </row>
+    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B179" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C179" s="13"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="13"/>
+      <c r="K179" s="13"/>
+      <c r="L179" s="13"/>
+      <c r="M179" s="13"/>
+      <c r="N179" s="13"/>
+      <c r="O179" s="13"/>
+      <c r="P179" s="13"/>
+      <c r="Q179" s="5"/>
+    </row>
+    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B180" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C180" s="13"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+      <c r="K180" s="13"/>
+      <c r="L180" s="13"/>
+      <c r="M180" s="13"/>
+      <c r="N180" s="13"/>
+      <c r="O180" s="13"/>
+      <c r="P180" s="13"/>
+      <c r="Q180" s="5"/>
+    </row>
+    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B181" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C181" s="13"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+      <c r="K181" s="13"/>
+      <c r="L181" s="13"/>
+      <c r="M181" s="13"/>
+      <c r="N181" s="13"/>
+      <c r="O181" s="13"/>
+      <c r="P181" s="13"/>
+      <c r="Q181" s="5"/>
+    </row>
+    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B182" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C182" s="13"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="13"/>
+      <c r="K182" s="13"/>
+      <c r="L182" s="13"/>
+      <c r="M182" s="13"/>
+      <c r="N182" s="13"/>
+      <c r="O182" s="13"/>
+      <c r="P182" s="13"/>
+      <c r="Q182" s="5"/>
+    </row>
+    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C183" s="13"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="13"/>
+      <c r="K183" s="13"/>
+      <c r="L183" s="13"/>
+      <c r="M183" s="13"/>
+      <c r="N183" s="13"/>
+      <c r="O183" s="13"/>
+      <c r="P183" s="13"/>
+      <c r="Q183" s="5"/>
+    </row>
+    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B184" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C184" s="13"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="13"/>
+      <c r="J184" s="13"/>
+      <c r="K184" s="13"/>
+      <c r="L184" s="13"/>
+      <c r="M184" s="13"/>
+      <c r="N184" s="13"/>
+      <c r="O184" s="13"/>
+      <c r="P184" s="13"/>
+      <c r="Q184" s="5"/>
+    </row>
+    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B185" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C185" s="13"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13"/>
+      <c r="I185" s="13"/>
+      <c r="J185" s="13"/>
+      <c r="K185" s="13"/>
+      <c r="L185" s="13"/>
+      <c r="M185" s="13"/>
+      <c r="N185" s="13"/>
+      <c r="O185" s="13"/>
+      <c r="P185" s="13"/>
+      <c r="Q185" s="5"/>
+    </row>
+    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B186" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C186" s="13"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="13"/>
+      <c r="I186" s="13"/>
+      <c r="J186" s="13"/>
+      <c r="K186" s="13"/>
+      <c r="L186" s="13"/>
+      <c r="M186" s="13"/>
+      <c r="N186" s="13"/>
+      <c r="O186" s="13"/>
+      <c r="P186" s="13"/>
+      <c r="Q186" s="5"/>
+    </row>
+    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B187" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C187" s="13"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="13"/>
+      <c r="F187" s="13"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="13"/>
+      <c r="I187" s="13"/>
+      <c r="J187" s="13"/>
+      <c r="K187" s="13"/>
+      <c r="L187" s="13"/>
+      <c r="M187" s="13"/>
+      <c r="N187" s="13"/>
+      <c r="O187" s="13"/>
+      <c r="P187" s="13"/>
+      <c r="Q187" s="5"/>
+    </row>
+    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B188" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C188" s="13"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="13"/>
+      <c r="K188" s="13"/>
+      <c r="L188" s="13"/>
+      <c r="M188" s="13"/>
+      <c r="N188" s="13"/>
+      <c r="O188" s="13"/>
+      <c r="P188" s="13"/>
+      <c r="Q188" s="5"/>
+    </row>
+    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B189" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C189" s="13"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="13"/>
+      <c r="K189" s="13"/>
+      <c r="L189" s="13"/>
+      <c r="M189" s="13"/>
+      <c r="N189" s="13"/>
+      <c r="O189" s="13"/>
+      <c r="P189" s="13"/>
+      <c r="Q189" s="5"/>
+    </row>
+    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B190" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C190" s="13"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="13"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="13"/>
+      <c r="K190" s="13"/>
+      <c r="L190" s="13"/>
+      <c r="M190" s="13"/>
+      <c r="N190" s="13"/>
+      <c r="O190" s="13"/>
+      <c r="P190" s="13"/>
+      <c r="Q190" s="5"/>
+    </row>
+    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B191" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C191" s="13"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="13"/>
+      <c r="K191" s="13"/>
+      <c r="L191" s="13"/>
+      <c r="M191" s="13"/>
+      <c r="N191" s="13"/>
+      <c r="O191" s="13"/>
+      <c r="P191" s="13"/>
+      <c r="Q191" s="5"/>
+    </row>
+    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B192" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C192" s="13"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="13"/>
+      <c r="I192" s="13"/>
+      <c r="J192" s="13"/>
+      <c r="K192" s="13"/>
+      <c r="L192" s="13"/>
+      <c r="M192" s="13"/>
+      <c r="N192" s="13"/>
+      <c r="O192" s="13"/>
+      <c r="P192" s="13"/>
+      <c r="Q192" s="5"/>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B193" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C193" s="13"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="13"/>
+      <c r="I193" s="13"/>
+      <c r="J193" s="13"/>
+      <c r="K193" s="13"/>
+      <c r="L193" s="13"/>
+      <c r="M193" s="13"/>
+      <c r="N193" s="13"/>
+      <c r="O193" s="13"/>
+      <c r="P193" s="13"/>
+      <c r="Q193" s="5"/>
+    </row>
+    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B194" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C194" s="13"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="13"/>
+      <c r="I194" s="13"/>
+      <c r="J194" s="13"/>
+      <c r="K194" s="13"/>
+      <c r="L194" s="13"/>
+      <c r="M194" s="13"/>
+      <c r="N194" s="13"/>
+      <c r="O194" s="13"/>
+      <c r="P194" s="13"/>
+      <c r="Q194" s="5"/>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B195" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C195" s="13"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="13"/>
+      <c r="I195" s="13"/>
+      <c r="J195" s="13"/>
+      <c r="K195" s="13"/>
+      <c r="L195" s="13"/>
+      <c r="M195" s="13"/>
+      <c r="N195" s="13"/>
+      <c r="O195" s="13"/>
+      <c r="P195" s="13"/>
+      <c r="Q195" s="5"/>
+    </row>
+    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B196" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C196" s="13"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="13"/>
+      <c r="I196" s="13"/>
+      <c r="J196" s="13"/>
+      <c r="K196" s="13"/>
+      <c r="L196" s="13"/>
+      <c r="M196" s="13"/>
+      <c r="N196" s="13"/>
+      <c r="O196" s="13"/>
+      <c r="P196" s="13"/>
+      <c r="Q196" s="5"/>
+    </row>
+    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B197" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C197" s="13"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="13"/>
+      <c r="I197" s="13"/>
+      <c r="J197" s="13"/>
+      <c r="K197" s="13"/>
+      <c r="L197" s="13"/>
+      <c r="M197" s="13"/>
+      <c r="N197" s="13"/>
+      <c r="O197" s="13"/>
+      <c r="P197" s="13"/>
+      <c r="Q197" s="5"/>
+    </row>
+    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B198" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C198" s="13"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="13"/>
+      <c r="K198" s="13"/>
+      <c r="L198" s="13"/>
+      <c r="M198" s="13"/>
+      <c r="N198" s="13"/>
+      <c r="O198" s="13"/>
+      <c r="P198" s="13"/>
+      <c r="Q198" s="5"/>
+    </row>
+    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B199" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C199" s="13"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="13"/>
+      <c r="K199" s="13"/>
+      <c r="L199" s="13"/>
+      <c r="M199" s="13"/>
+      <c r="N199" s="13"/>
+      <c r="O199" s="13"/>
+      <c r="P199" s="13"/>
+      <c r="Q199" s="5"/>
+    </row>
+    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C200" s="13"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="13"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="13"/>
+      <c r="K200" s="13"/>
+      <c r="L200" s="13"/>
+      <c r="M200" s="13"/>
+      <c r="N200" s="13"/>
+      <c r="O200" s="13"/>
+      <c r="P200" s="13"/>
+      <c r="Q200" s="5"/>
+    </row>
+    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B201" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C201" s="13"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="13"/>
+      <c r="K201" s="13"/>
+      <c r="L201" s="13"/>
+      <c r="M201" s="13"/>
+      <c r="N201" s="13"/>
+      <c r="O201" s="13"/>
+      <c r="P201" s="13"/>
+      <c r="Q201" s="5"/>
+    </row>
+    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B202" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C202" s="13"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="13"/>
+      <c r="I202" s="13"/>
+      <c r="J202" s="13"/>
+      <c r="K202" s="13"/>
+      <c r="L202" s="13"/>
+      <c r="M202" s="13"/>
+      <c r="N202" s="13"/>
+      <c r="O202" s="13"/>
+      <c r="P202" s="13"/>
+      <c r="Q202" s="5"/>
+    </row>
+    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B203" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C203" s="13"/>
+      <c r="D203" s="16"/>
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
+      <c r="G203" s="13"/>
+      <c r="H203" s="13"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="13"/>
+      <c r="K203" s="13"/>
+      <c r="L203" s="13"/>
+      <c r="M203" s="13"/>
+      <c r="N203" s="13"/>
+      <c r="O203" s="13"/>
+      <c r="P203" s="13"/>
+      <c r="Q203" s="5"/>
+    </row>
+    <row r="204" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B204" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C204" s="13"/>
+      <c r="D204" s="16"/>
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="13"/>
+      <c r="I204" s="13"/>
+      <c r="J204" s="13"/>
+      <c r="K204" s="13"/>
+      <c r="L204" s="13"/>
+      <c r="M204" s="13"/>
+      <c r="N204" s="13"/>
+      <c r="O204" s="13"/>
+      <c r="P204" s="13"/>
+      <c r="Q204" s="5"/>
+    </row>
+    <row r="205" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B205" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C205" s="13"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="13"/>
+      <c r="F205" s="13"/>
+      <c r="G205" s="13"/>
+      <c r="H205" s="13"/>
+      <c r="I205" s="13"/>
+      <c r="J205" s="13"/>
+      <c r="K205" s="13"/>
+      <c r="L205" s="13"/>
+      <c r="M205" s="13"/>
+      <c r="N205" s="13"/>
+      <c r="O205" s="13"/>
+      <c r="P205" s="13"/>
+      <c r="Q205" s="5"/>
+    </row>
+    <row r="206" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B206" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C206" s="13"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
+      <c r="G206" s="13"/>
+      <c r="H206" s="13"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="13"/>
+      <c r="K206" s="13"/>
+      <c r="L206" s="13"/>
+      <c r="M206" s="13"/>
+      <c r="N206" s="13"/>
+      <c r="O206" s="13"/>
+      <c r="P206" s="13"/>
+      <c r="Q206" s="5"/>
+    </row>
+    <row r="207" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B207" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C207" s="13"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="13"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="13"/>
+      <c r="K207" s="13"/>
+      <c r="L207" s="13"/>
+      <c r="M207" s="13"/>
+      <c r="N207" s="13"/>
+      <c r="O207" s="13"/>
+      <c r="P207" s="13"/>
+      <c r="Q207" s="5"/>
+    </row>
+    <row r="208" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B208" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C208" s="13"/>
+      <c r="D208" s="16"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
+      <c r="G208" s="13"/>
+      <c r="H208" s="13"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="13"/>
+      <c r="K208" s="13"/>
+      <c r="L208" s="13"/>
+      <c r="M208" s="13"/>
+      <c r="N208" s="13"/>
+      <c r="O208" s="13"/>
+      <c r="P208" s="13"/>
+      <c r="Q208" s="5"/>
+    </row>
+    <row r="209" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B209" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C209" s="13"/>
+      <c r="D209" s="16"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
+      <c r="G209" s="13"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="13"/>
+      <c r="K209" s="13"/>
+      <c r="L209" s="13"/>
+      <c r="M209" s="13"/>
+      <c r="N209" s="13"/>
+      <c r="O209" s="13"/>
+      <c r="P209" s="13"/>
+      <c r="Q209" s="5"/>
+    </row>
+    <row r="210" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B210" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C210" s="13"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
+      <c r="G210" s="13"/>
+      <c r="H210" s="13"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="13"/>
+      <c r="K210" s="13"/>
+      <c r="L210" s="13"/>
+      <c r="M210" s="13"/>
+      <c r="N210" s="13"/>
+      <c r="O210" s="13"/>
+      <c r="P210" s="13"/>
+      <c r="Q210" s="5"/>
+    </row>
+    <row r="211" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B211" s="4"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="13"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="13"/>
+      <c r="K211" s="13"/>
+      <c r="L211" s="13"/>
+      <c r="M211" s="13"/>
+      <c r="N211" s="13"/>
+      <c r="O211" s="13"/>
+      <c r="P211" s="13"/>
+      <c r="Q211" s="5"/>
+    </row>
+    <row r="212" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B212" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C212" s="13"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="13"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="13"/>
+      <c r="K212" s="13"/>
+      <c r="L212" s="13"/>
+      <c r="M212" s="13"/>
+      <c r="N212" s="13"/>
+      <c r="O212" s="13"/>
+      <c r="P212" s="13"/>
+      <c r="Q212" s="5"/>
+    </row>
+    <row r="213" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B213" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C213" s="13"/>
+      <c r="D213" s="16"/>
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
+      <c r="G213" s="13"/>
+      <c r="H213" s="13"/>
+      <c r="I213" s="13"/>
+      <c r="J213" s="13"/>
+      <c r="K213" s="13"/>
+      <c r="L213" s="13"/>
+      <c r="M213" s="13"/>
+      <c r="N213" s="13"/>
+      <c r="O213" s="13"/>
+      <c r="P213" s="13"/>
+      <c r="Q213" s="5"/>
+    </row>
+    <row r="214" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B214" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C214" s="13"/>
+      <c r="D214" s="16"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
+      <c r="G214" s="13"/>
+      <c r="H214" s="13"/>
+      <c r="I214" s="13"/>
+      <c r="J214" s="13"/>
+      <c r="K214" s="13"/>
+      <c r="L214" s="13"/>
+      <c r="M214" s="13"/>
+      <c r="N214" s="13"/>
+      <c r="O214" s="13"/>
+      <c r="P214" s="13"/>
+      <c r="Q214" s="5"/>
+    </row>
+    <row r="215" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B215" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C215" s="13"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
+      <c r="G215" s="13"/>
+      <c r="H215" s="13"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="13"/>
+      <c r="K215" s="13"/>
+      <c r="L215" s="13"/>
+      <c r="M215" s="13"/>
+      <c r="N215" s="13"/>
+      <c r="O215" s="13"/>
+      <c r="P215" s="13"/>
+      <c r="Q215" s="5"/>
+    </row>
+    <row r="216" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B216" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216" s="13"/>
+      <c r="D216" s="16"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
+      <c r="G216" s="13"/>
+      <c r="H216" s="13"/>
+      <c r="I216" s="13"/>
+      <c r="J216" s="13"/>
+      <c r="K216" s="13"/>
+      <c r="L216" s="13"/>
+      <c r="M216" s="13"/>
+      <c r="N216" s="13"/>
+      <c r="O216" s="13"/>
+      <c r="P216" s="13"/>
+      <c r="Q216" s="5"/>
+    </row>
+    <row r="217" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B217" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C217" s="13"/>
+      <c r="D217" s="16"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="13"/>
+      <c r="G217" s="13"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="13"/>
+      <c r="K217" s="13"/>
+      <c r="L217" s="13"/>
+      <c r="M217" s="13"/>
+      <c r="N217" s="13"/>
+      <c r="O217" s="13"/>
+      <c r="P217" s="13"/>
+      <c r="Q217" s="5"/>
+    </row>
+    <row r="218" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B218" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C218" s="13"/>
+      <c r="D218" s="16"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="13"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="13"/>
+      <c r="K218" s="13"/>
+      <c r="L218" s="13"/>
+      <c r="M218" s="13"/>
+      <c r="N218" s="13"/>
+      <c r="O218" s="13"/>
+      <c r="P218" s="13"/>
+      <c r="Q218" s="5"/>
+    </row>
+    <row r="219" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B219" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C219" s="13"/>
+      <c r="D219" s="16"/>
+      <c r="E219" s="13"/>
+      <c r="F219" s="13"/>
+      <c r="G219" s="13"/>
+      <c r="H219" s="13"/>
+      <c r="I219" s="13"/>
+      <c r="J219" s="13"/>
+      <c r="K219" s="13"/>
+      <c r="L219" s="13"/>
+      <c r="M219" s="13"/>
+      <c r="N219" s="13"/>
+      <c r="O219" s="13"/>
+      <c r="P219" s="13"/>
+      <c r="Q219" s="5"/>
+    </row>
+    <row r="220" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B220" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C220" s="13"/>
+      <c r="D220" s="16"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="13"/>
+      <c r="G220" s="13"/>
+      <c r="H220" s="13"/>
+      <c r="I220" s="13"/>
+      <c r="J220" s="13"/>
+      <c r="K220" s="13"/>
+      <c r="L220" s="13"/>
+      <c r="M220" s="13"/>
+      <c r="N220" s="13"/>
+      <c r="O220" s="13"/>
+      <c r="P220" s="13"/>
+      <c r="Q220" s="5"/>
+    </row>
+    <row r="221" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B221" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C221" s="13"/>
+      <c r="D221" s="16"/>
+      <c r="E221" s="13"/>
+      <c r="F221" s="13"/>
+      <c r="G221" s="13"/>
+      <c r="H221" s="13"/>
+      <c r="I221" s="13"/>
+      <c r="J221" s="13"/>
+      <c r="K221" s="13"/>
+      <c r="L221" s="13"/>
+      <c r="M221" s="13"/>
+      <c r="N221" s="13"/>
+      <c r="O221" s="13"/>
+      <c r="P221" s="13"/>
+      <c r="Q221" s="5"/>
+    </row>
+    <row r="222" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B222" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C222" s="13"/>
+      <c r="D222" s="16"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="13"/>
+      <c r="J222" s="13"/>
+      <c r="K222" s="13"/>
+      <c r="L222" s="13"/>
+      <c r="M222" s="13"/>
+      <c r="N222" s="13"/>
+      <c r="O222" s="13"/>
+      <c r="P222" s="13"/>
+      <c r="Q222" s="5"/>
+    </row>
+    <row r="223" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B223" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C223" s="13"/>
+      <c r="D223" s="16"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="13"/>
+      <c r="G223" s="13"/>
+      <c r="H223" s="13"/>
+      <c r="I223" s="13"/>
+      <c r="J223" s="13"/>
+      <c r="K223" s="13"/>
+      <c r="L223" s="13"/>
+      <c r="M223" s="13"/>
+      <c r="N223" s="13"/>
+      <c r="O223" s="13"/>
+      <c r="P223" s="13"/>
+      <c r="Q223" s="5"/>
+    </row>
+    <row r="224" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B224" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C224" s="13"/>
+      <c r="D224" s="16"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
+      <c r="G224" s="13"/>
+      <c r="H224" s="13"/>
+      <c r="I224" s="13"/>
+      <c r="J224" s="13"/>
+      <c r="K224" s="13"/>
+      <c r="L224" s="13"/>
+      <c r="M224" s="13"/>
+      <c r="N224" s="13"/>
+      <c r="O224" s="13"/>
+      <c r="P224" s="13"/>
+      <c r="Q224" s="5"/>
+    </row>
+    <row r="225" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B225" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C225" s="13"/>
+      <c r="D225" s="16"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+      <c r="G225" s="13"/>
+      <c r="H225" s="13"/>
+      <c r="I225" s="13"/>
+      <c r="J225" s="13"/>
+      <c r="K225" s="13"/>
+      <c r="L225" s="13"/>
+      <c r="M225" s="13"/>
+      <c r="N225" s="13"/>
+      <c r="O225" s="13"/>
+      <c r="P225" s="13"/>
+      <c r="Q225" s="5"/>
+    </row>
+    <row r="226" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B226" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C226" s="13"/>
+      <c r="D226" s="16"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="13"/>
+      <c r="H226" s="13"/>
+      <c r="I226" s="13"/>
+      <c r="J226" s="13"/>
+      <c r="K226" s="13"/>
+      <c r="L226" s="13"/>
+      <c r="M226" s="13"/>
+      <c r="N226" s="13"/>
+      <c r="O226" s="13"/>
+      <c r="P226" s="13"/>
+      <c r="Q226" s="5"/>
+    </row>
+    <row r="227" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B227" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C227" s="13"/>
+      <c r="D227" s="16"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
+      <c r="G227" s="13"/>
+      <c r="H227" s="13"/>
+      <c r="I227" s="13"/>
+      <c r="J227" s="13"/>
+      <c r="K227" s="13"/>
+      <c r="L227" s="13"/>
+      <c r="M227" s="13"/>
+      <c r="N227" s="13"/>
+      <c r="O227" s="13"/>
+      <c r="P227" s="13"/>
+      <c r="Q227" s="5"/>
+    </row>
+    <row r="228" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B228" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C228" s="13"/>
+      <c r="D228" s="16"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
+      <c r="G228" s="13"/>
+      <c r="H228" s="13"/>
+      <c r="I228" s="13"/>
+      <c r="J228" s="13"/>
+      <c r="K228" s="13"/>
+      <c r="L228" s="13"/>
+      <c r="M228" s="13"/>
+      <c r="N228" s="13"/>
+      <c r="O228" s="13"/>
+      <c r="P228" s="13"/>
+      <c r="Q228" s="5"/>
+    </row>
+    <row r="229" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B229" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C229" s="13"/>
+      <c r="D229" s="16"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
+      <c r="G229" s="13"/>
+      <c r="H229" s="13"/>
+      <c r="I229" s="13"/>
+      <c r="J229" s="13"/>
+      <c r="K229" s="13"/>
+      <c r="L229" s="13"/>
+      <c r="M229" s="13"/>
+      <c r="N229" s="13"/>
+      <c r="O229" s="13"/>
+      <c r="P229" s="13"/>
+      <c r="Q229" s="5"/>
+    </row>
+    <row r="230" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B230" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C230" s="13"/>
+      <c r="D230" s="16"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="13"/>
+      <c r="H230" s="13"/>
+      <c r="I230" s="13"/>
+      <c r="J230" s="13"/>
+      <c r="K230" s="13"/>
+      <c r="L230" s="13"/>
+      <c r="M230" s="13"/>
+      <c r="N230" s="13"/>
+      <c r="O230" s="13"/>
+      <c r="P230" s="13"/>
+      <c r="Q230" s="5"/>
+    </row>
+    <row r="231" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B231" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C231" s="13"/>
+      <c r="D231" s="16"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
+      <c r="G231" s="13"/>
+      <c r="H231" s="13"/>
+      <c r="I231" s="13"/>
+      <c r="J231" s="13"/>
+      <c r="K231" s="13"/>
+      <c r="L231" s="13"/>
+      <c r="M231" s="13"/>
+      <c r="N231" s="13"/>
+      <c r="O231" s="13"/>
+      <c r="P231" s="13"/>
+      <c r="Q231" s="5"/>
+    </row>
+    <row r="232" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B232" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C232" s="7"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="I232" s="7"/>
+      <c r="J232" s="7"/>
+      <c r="K232" s="7"/>
+      <c r="L232" s="7"/>
+      <c r="M232" s="7"/>
+      <c r="N232" s="7"/>
+      <c r="O232" s="7"/>
+      <c r="P232" s="7"/>
+      <c r="Q232" s="8"/>
+    </row>
+    <row r="233" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B233" s="13"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="13"/>
+      <c r="G233" s="13"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B258" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B259" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259" s="13"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="13"/>
+      <c r="F259" s="5"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B260" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="13"/>
+      <c r="F260" s="5"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B261" s="4"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
+      <c r="E261" s="13"/>
+      <c r="F261" s="5"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B262" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="5"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B263" s="4"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="13"/>
+      <c r="F263" s="5"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B264" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="7"/>
+      <c r="F264" s="8"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="3"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B277" s="4"/>
+      <c r="C277" t="s">
+        <v>2</v>
+      </c>
+      <c r="G277" s="5"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B278" s="4"/>
+      <c r="C278" t="s">
+        <v>7</v>
+      </c>
+      <c r="G278" s="5"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B279" s="4"/>
+      <c r="D279" t="s">
+        <v>3</v>
+      </c>
+      <c r="G279" s="5"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B280" s="4"/>
+      <c r="D280" t="s">
+        <v>4</v>
+      </c>
+      <c r="G280" s="5"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B281" s="4"/>
+      <c r="D281" t="s">
+        <v>5</v>
+      </c>
+      <c r="G281" s="5"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B282" s="4"/>
+      <c r="D282" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G282" s="5"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B283" s="4"/>
+      <c r="D283" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G283" s="5"/>
+      <c r="H283" t="s">
+        <v>21</v>
+      </c>
+      <c r="I283" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B284" s="6"/>
+      <c r="C284" s="7"/>
+      <c r="D284" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
+      <c r="G284" s="8"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B287" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="3"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B288" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13"/>
+      <c r="G288" s="5"/>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B289" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C289" s="13"/>
+      <c r="D289" s="13"/>
+      <c r="E289" s="13"/>
+      <c r="F289" s="13"/>
+      <c r="G289" s="5"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B290" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C290" s="13"/>
+      <c r="D290" s="13"/>
+      <c r="E290" s="13"/>
+      <c r="F290" s="13"/>
+      <c r="G290" s="5"/>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B291" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C291" s="7"/>
+      <c r="D291" s="7"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="7"/>
+      <c r="G291" s="8"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B315" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C315" s="2"/>
+      <c r="D315" s="2"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="3"/>
+      <c r="G315" s="13"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B316" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C316" s="13"/>
+      <c r="D316" s="13"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="5"/>
+      <c r="G316" s="13"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B317" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C317" s="13"/>
+      <c r="D317" s="13"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="13"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B318" s="4"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="13"/>
+      <c r="E318" s="13"/>
+      <c r="F318" s="5"/>
+      <c r="G318" s="13"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B319" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C319" s="13"/>
+      <c r="D319" s="13"/>
+      <c r="E319" s="13"/>
+      <c r="F319" s="5"/>
+      <c r="G319" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H319" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B320" s="4"/>
+      <c r="C320" s="13"/>
+      <c r="D320" s="13"/>
+      <c r="E320" s="13"/>
+      <c r="F320" s="5"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B321" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C321" s="7"/>
+      <c r="D321" s="7"/>
+      <c r="E321" s="7"/>
+      <c r="F321" s="8"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B325" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C325" s="2"/>
+      <c r="D325" s="2"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
+      <c r="G325" s="3"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B326" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C326" s="13"/>
+      <c r="D326" s="13"/>
+      <c r="E326" s="13"/>
+      <c r="F326" s="13"/>
+      <c r="G326" s="5"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B327" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C327" s="13"/>
+      <c r="D327" s="13"/>
+      <c r="E327" s="13"/>
+      <c r="F327" s="13"/>
+      <c r="G327" s="5"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B328" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C328" s="13"/>
+      <c r="D328" s="13"/>
+      <c r="E328" s="13"/>
+      <c r="F328" s="13"/>
+      <c r="G328" s="5"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B329" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C329" s="7"/>
+      <c r="D329" s="7"/>
+      <c r="E329" s="7"/>
+      <c r="F329" s="7"/>
+      <c r="G329" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.typescript/1.Chuong-trinh-TypeScript-dau-tien.xlsx
+++ b/me/2.typescript/1.Chuong-trinh-TypeScript-dau-tien.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\2.typescript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF5EFF3-E22A-4E28-92B4-ABC5A934E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5267721B-6E79-421C-8016-F4E28165D1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="doc" sheetId="2" r:id="rId1"/>
     <sheet name="Project structure" sheetId="1" r:id="rId2"/>
     <sheet name="Install TypeScript" sheetId="4" r:id="rId3"/>
     <sheet name="Compile" sheetId="5" r:id="rId4"/>
+    <sheet name="tsconfig" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="218">
   <si>
     <t>構成</t>
   </si>
@@ -543,9 +544,6 @@
     <t>Biên dịch type script sang javascript</t>
   </si>
   <si>
-    <t>tsc greeter.ts -w</t>
-  </si>
-  <si>
     <t>Biên dịch tự động</t>
   </si>
   <si>
@@ -559,6 +557,198 @@
   </si>
   <si>
     <t>Thêm option --watch để biên dịch tự động khi file type script có sự thay đổi</t>
+  </si>
+  <si>
+    <t>tsc greeter.ts --watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biên dịch sẽ rất dài dẫn đến việc soạn thảo các câu biên dịch rất mất thời gian. Do đó việc khai báo  </t>
+  </si>
+  <si>
+    <t>các cấu hình của sự biên dịch sẽ được khai báo trong 1 tập tin đó là tsconfig</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong lúc biên dịch thì việc đưa vào các </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thuộc tính</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thì nếu làm theo cách gõ vào các tùy chọn thì câu </t>
+    </r>
+  </si>
+  <si>
+    <t>Vị trí của tập tin này là nằm trong thư mục gốc của project</t>
+  </si>
+  <si>
+    <t>mjs</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>tsconfig.json</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\tsconfig.json</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>    "compilerOptions": {</t>
+  </si>
+  <si>
+    <t>        "target"    : "ES6",</t>
+  </si>
+  <si>
+    <t>        "outDir"    : "mjs",</t>
+  </si>
+  <si>
+    <t>        "removeComments" : false,</t>
+  </si>
+  <si>
+    <t>        "watch"     : true</t>
+  </si>
+  <si>
+    <t>    },</t>
+  </si>
+  <si>
+    <t>    "exclude": [</t>
+  </si>
+  <si>
+    <t>        "css",</t>
+  </si>
+  <si>
+    <t>        "fonts",</t>
+  </si>
+  <si>
+    <t>        "js",</t>
+  </si>
+  <si>
+    <t>        "mjs"</t>
+  </si>
+  <si>
+    <t>    ]</t>
+  </si>
+  <si>
+    <t>        "rootDirs": ["ts"],</t>
+  </si>
+  <si>
+    <t>folder ts này chứa các tập tin type script</t>
+  </si>
+  <si>
+    <t>file javascript được biên dịch ra sẽ nằm trong thư mục mjs</t>
+  </si>
+  <si>
+    <t>Tự động biên dịch lại khi các file type script có sự thay đổi</t>
+  </si>
+  <si>
+    <t>Đưa vào 1 mảng cấu hình chứa các folder nếu có các file type script thì cũng ko biên dịch</t>
+  </si>
+  <si>
+    <t>Compile theo chuẩn ES6</t>
+  </si>
+  <si>
+    <t>Xóa đi các comment khi biên dịch type script sang javascript</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Khi muốn biên dịch thì thực hiện gõ lệnh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tsc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; nó sẽ thực hiện đọc cấu hình trong file tsconfig.json và thực hiện biên dịch</t>
+    </r>
+  </si>
+  <si>
+    <t>Edit code</t>
+  </si>
+  <si>
+    <t>        &lt;script src="./mjs/greeter.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>        ….</t>
+  </si>
+  <si>
+    <t>typescript\2.typescript\ts\greeter.ts</t>
+  </si>
+  <si>
+    <t>let user = "BAC";</t>
+  </si>
+  <si>
+    <t>Compile</t>
+  </si>
+  <si>
+    <t>tsc</t>
+  </si>
+  <si>
+    <t>new 構成</t>
+  </si>
+  <si>
+    <t>is compiled</t>
+  </si>
+  <si>
+    <r>
+      <t>        "rootDirs": ["ts",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "css"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <t>do đã khai báo css trong option exclude</t>
+  </si>
+  <si>
+    <t>Cho dù có khai báo folder css ở trong rootDirs nhưng nếu trong folder này có file type script thì cũng sẽ ko được biên dịch</t>
   </si>
 </sst>
 </file>
@@ -687,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -707,6 +897,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,6 +2183,558 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>560472</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>123106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F556FA3D-21D3-0B05-5825-A0030A18C95B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048625" y="53425725"/>
+          <a:ext cx="12019047" cy="5752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47363B7D-3A2B-0FA2-6AE6-26017E32F0F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1943100" y="56673750"/>
+          <a:ext cx="9334500" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>531975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>113525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53CA800-DA60-D664-8722-E26C520990B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10467975" y="200025"/>
+          <a:ext cx="11400000" cy="6200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7524601C-F5E4-F23E-29CC-AE6C0DDD0CE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3533775" y="304800"/>
+          <a:ext cx="10077450" cy="2943225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3A128E-9BFB-7D1C-4E41-EB4B22461398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="914400"/>
+          <a:ext cx="923925" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB384058-0FEA-1B80-96E0-1314F0EA9DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="590550" y="3419475"/>
+          <a:ext cx="1914525" cy="6105525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5C7248-D332-8A4C-4AEE-5E7C1883A98D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1495425" y="3771900"/>
+          <a:ext cx="438150" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>380349</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00222D5D-6B33-6123-39D2-8034D6C04681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="12544425"/>
+          <a:ext cx="5209524" cy="1123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85523CC-65F9-7C36-440D-DED810AFCA9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="971550" y="16916400"/>
+          <a:ext cx="952500" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56538</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4035F325-BE7E-B975-C572-2218B398464E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="11858625"/>
+          <a:ext cx="4895238" cy="600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F3EDDCE-1546-C7FF-0016-57CCD993D4FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4943475" y="7953375"/>
+          <a:ext cx="57150" cy="8829675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2384,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE282E4-898E-4160-9445-CA1A117344F9}">
   <dimension ref="A2:Q283"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
+    <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="Q278" sqref="Q278"/>
     </sheetView>
   </sheetViews>
@@ -2440,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB07D3B-B648-40E7-88AB-F833ACAC23DC}">
   <dimension ref="A2:Q329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="G320" sqref="G320"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,7 +3205,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -7088,12 +7840,12 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -7141,7 +7893,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B319" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C319" s="13"/>
       <c r="D319" s="13"/>
@@ -7172,7 +7924,7 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -7212,7 +7964,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B328" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="13"/>
@@ -7229,6 +7981,886 @@
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
       <c r="G329" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1967F490-38AA-40D6-9920-93BFA6E0E757}">
+  <dimension ref="A2:M105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="19"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="25"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="5"/>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="5"/>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="5"/>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="5"/>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="5"/>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="5"/>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="5"/>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="24"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="25"/>
+      <c r="C77" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="26"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="25"/>
+      <c r="C78" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="26"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="25"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="26"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="25"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="26"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="25"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="26"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="25"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="26"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="25"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="20"/>
+      <c r="G83" s="26"/>
+      <c r="H83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="25"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="26"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="13"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="5"/>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="5"/>
+      <c r="I94" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
